--- a/ai07DDK/Karalius_Correlation.xlsx
+++ b/ai07DDK/Karalius_Correlation.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mc_dkaralius26\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mc_dkaralius26\Documents\Machine_Learning\ai07DDK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F38F1C66-A34D-4EEF-BBDF-27F3D238F36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F403DB00-D470-4609-AF4A-CD9157DC2B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Correlation" sheetId="5" r:id="rId1"/>
-    <sheet name="Ice Cream Sales - temperatures" sheetId="1" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" r:id="rId2"/>
     <sheet name="Analysis" sheetId="4" r:id="rId3"/>
     <sheet name="ProfitsvsTemp" sheetId="2" r:id="rId4"/>
   </sheets>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -738,7 +738,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ice Cream Sales - temperatures'!$B$1</c:f>
+              <c:f>Data!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -787,7 +787,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ice Cream Sales - temperatures'!$A$2:$A$366</c:f>
+              <c:f>Data!$A$2:$A$366</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="365"/>
@@ -1891,7 +1891,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ice Cream Sales - temperatures'!$B$2:$B$366</c:f>
+              <c:f>Data!$B$2:$B$366</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="365"/>
@@ -4190,7 +4190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4240,10 +4240,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B366"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7186,10 +7188,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -7260,7 +7262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ai07DDK/Karalius_Correlation.xlsx
+++ b/ai07DDK/Karalius_Correlation.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mc_dkaralius26\Documents\Machine_Learning\ai07DDK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F403DB00-D470-4609-AF4A-CD9157DC2B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A80B106A-C62A-4F16-BBE6-C951B6C6A656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Correlation" sheetId="5" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
-    <sheet name="Analysis" sheetId="4" r:id="rId3"/>
-    <sheet name="ProfitsvsTemp" sheetId="2" r:id="rId4"/>
+    <sheet name="Correlation2" sheetId="7" r:id="rId3"/>
+    <sheet name="Data2" sheetId="6" r:id="rId4"/>
+    <sheet name="HoursStudiedvsExamScores" sheetId="8" r:id="rId5"/>
+    <sheet name="Analysis" sheetId="4" r:id="rId6"/>
+    <sheet name="ProfitsvsTemp" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="19" uniqueCount="15">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="227" uniqueCount="219">
   <si>
     <t>Temperature</t>
   </si>
@@ -66,22 +69,634 @@
     <t>What's one thing correlation cannot tell you?</t>
   </si>
   <si>
-    <t>Temperature and Ice Cream Profits</t>
-  </si>
-  <si>
-    <t>Ice Cream Sales and Temperature (https://www.kaggle.com/datasets/raphaelmanayon/temperature-and-ice-cream-sales)</t>
-  </si>
-  <si>
-    <t>Since there are only two variables, the correlation here is extremely strong.</t>
-  </si>
-  <si>
-    <t>Technically N/A, since there are only two.</t>
-  </si>
-  <si>
-    <t>No, since it's only positive</t>
-  </si>
-  <si>
     <t>It can't tell you why the data is as it is (like why a person bought an ice cream on a certain day)</t>
+  </si>
+  <si>
+    <t>student_id</t>
+  </si>
+  <si>
+    <t>hours_studied</t>
+  </si>
+  <si>
+    <t>exam_score</t>
+  </si>
+  <si>
+    <t>S001</t>
+  </si>
+  <si>
+    <t>S002</t>
+  </si>
+  <si>
+    <t>S003</t>
+  </si>
+  <si>
+    <t>S004</t>
+  </si>
+  <si>
+    <t>S005</t>
+  </si>
+  <si>
+    <t>S006</t>
+  </si>
+  <si>
+    <t>S007</t>
+  </si>
+  <si>
+    <t>S008</t>
+  </si>
+  <si>
+    <t>S009</t>
+  </si>
+  <si>
+    <t>S010</t>
+  </si>
+  <si>
+    <t>S011</t>
+  </si>
+  <si>
+    <t>S012</t>
+  </si>
+  <si>
+    <t>S013</t>
+  </si>
+  <si>
+    <t>S014</t>
+  </si>
+  <si>
+    <t>S015</t>
+  </si>
+  <si>
+    <t>S016</t>
+  </si>
+  <si>
+    <t>S017</t>
+  </si>
+  <si>
+    <t>S018</t>
+  </si>
+  <si>
+    <t>S019</t>
+  </si>
+  <si>
+    <t>S020</t>
+  </si>
+  <si>
+    <t>S021</t>
+  </si>
+  <si>
+    <t>S022</t>
+  </si>
+  <si>
+    <t>S023</t>
+  </si>
+  <si>
+    <t>S024</t>
+  </si>
+  <si>
+    <t>S025</t>
+  </si>
+  <si>
+    <t>S026</t>
+  </si>
+  <si>
+    <t>S027</t>
+  </si>
+  <si>
+    <t>S028</t>
+  </si>
+  <si>
+    <t>S029</t>
+  </si>
+  <si>
+    <t>S030</t>
+  </si>
+  <si>
+    <t>S031</t>
+  </si>
+  <si>
+    <t>S032</t>
+  </si>
+  <si>
+    <t>S033</t>
+  </si>
+  <si>
+    <t>S034</t>
+  </si>
+  <si>
+    <t>S035</t>
+  </si>
+  <si>
+    <t>S036</t>
+  </si>
+  <si>
+    <t>S037</t>
+  </si>
+  <si>
+    <t>S038</t>
+  </si>
+  <si>
+    <t>S039</t>
+  </si>
+  <si>
+    <t>S040</t>
+  </si>
+  <si>
+    <t>S041</t>
+  </si>
+  <si>
+    <t>S042</t>
+  </si>
+  <si>
+    <t>S043</t>
+  </si>
+  <si>
+    <t>S044</t>
+  </si>
+  <si>
+    <t>S045</t>
+  </si>
+  <si>
+    <t>S046</t>
+  </si>
+  <si>
+    <t>S047</t>
+  </si>
+  <si>
+    <t>S048</t>
+  </si>
+  <si>
+    <t>S049</t>
+  </si>
+  <si>
+    <t>S050</t>
+  </si>
+  <si>
+    <t>S051</t>
+  </si>
+  <si>
+    <t>S052</t>
+  </si>
+  <si>
+    <t>S053</t>
+  </si>
+  <si>
+    <t>S054</t>
+  </si>
+  <si>
+    <t>S055</t>
+  </si>
+  <si>
+    <t>S056</t>
+  </si>
+  <si>
+    <t>S057</t>
+  </si>
+  <si>
+    <t>S058</t>
+  </si>
+  <si>
+    <t>S059</t>
+  </si>
+  <si>
+    <t>S060</t>
+  </si>
+  <si>
+    <t>S061</t>
+  </si>
+  <si>
+    <t>S062</t>
+  </si>
+  <si>
+    <t>S063</t>
+  </si>
+  <si>
+    <t>S064</t>
+  </si>
+  <si>
+    <t>S065</t>
+  </si>
+  <si>
+    <t>S066</t>
+  </si>
+  <si>
+    <t>S067</t>
+  </si>
+  <si>
+    <t>S068</t>
+  </si>
+  <si>
+    <t>S069</t>
+  </si>
+  <si>
+    <t>S070</t>
+  </si>
+  <si>
+    <t>S071</t>
+  </si>
+  <si>
+    <t>S072</t>
+  </si>
+  <si>
+    <t>S073</t>
+  </si>
+  <si>
+    <t>S074</t>
+  </si>
+  <si>
+    <t>S075</t>
+  </si>
+  <si>
+    <t>S076</t>
+  </si>
+  <si>
+    <t>S077</t>
+  </si>
+  <si>
+    <t>S078</t>
+  </si>
+  <si>
+    <t>S079</t>
+  </si>
+  <si>
+    <t>S080</t>
+  </si>
+  <si>
+    <t>S081</t>
+  </si>
+  <si>
+    <t>S082</t>
+  </si>
+  <si>
+    <t>S083</t>
+  </si>
+  <si>
+    <t>S084</t>
+  </si>
+  <si>
+    <t>S085</t>
+  </si>
+  <si>
+    <t>S086</t>
+  </si>
+  <si>
+    <t>S087</t>
+  </si>
+  <si>
+    <t>S088</t>
+  </si>
+  <si>
+    <t>S089</t>
+  </si>
+  <si>
+    <t>S090</t>
+  </si>
+  <si>
+    <t>S091</t>
+  </si>
+  <si>
+    <t>S092</t>
+  </si>
+  <si>
+    <t>S093</t>
+  </si>
+  <si>
+    <t>S094</t>
+  </si>
+  <si>
+    <t>S095</t>
+  </si>
+  <si>
+    <t>S096</t>
+  </si>
+  <si>
+    <t>S097</t>
+  </si>
+  <si>
+    <t>S098</t>
+  </si>
+  <si>
+    <t>S099</t>
+  </si>
+  <si>
+    <t>S100</t>
+  </si>
+  <si>
+    <t>S101</t>
+  </si>
+  <si>
+    <t>S102</t>
+  </si>
+  <si>
+    <t>S103</t>
+  </si>
+  <si>
+    <t>S104</t>
+  </si>
+  <si>
+    <t>S105</t>
+  </si>
+  <si>
+    <t>S106</t>
+  </si>
+  <si>
+    <t>S107</t>
+  </si>
+  <si>
+    <t>S108</t>
+  </si>
+  <si>
+    <t>S109</t>
+  </si>
+  <si>
+    <t>S110</t>
+  </si>
+  <si>
+    <t>S111</t>
+  </si>
+  <si>
+    <t>S112</t>
+  </si>
+  <si>
+    <t>S113</t>
+  </si>
+  <si>
+    <t>S114</t>
+  </si>
+  <si>
+    <t>S115</t>
+  </si>
+  <si>
+    <t>S116</t>
+  </si>
+  <si>
+    <t>S117</t>
+  </si>
+  <si>
+    <t>S118</t>
+  </si>
+  <si>
+    <t>S119</t>
+  </si>
+  <si>
+    <t>S120</t>
+  </si>
+  <si>
+    <t>S121</t>
+  </si>
+  <si>
+    <t>S122</t>
+  </si>
+  <si>
+    <t>S123</t>
+  </si>
+  <si>
+    <t>S124</t>
+  </si>
+  <si>
+    <t>S125</t>
+  </si>
+  <si>
+    <t>S126</t>
+  </si>
+  <si>
+    <t>S127</t>
+  </si>
+  <si>
+    <t>S128</t>
+  </si>
+  <si>
+    <t>S129</t>
+  </si>
+  <si>
+    <t>S130</t>
+  </si>
+  <si>
+    <t>S131</t>
+  </si>
+  <si>
+    <t>S132</t>
+  </si>
+  <si>
+    <t>S133</t>
+  </si>
+  <si>
+    <t>S134</t>
+  </si>
+  <si>
+    <t>S135</t>
+  </si>
+  <si>
+    <t>S136</t>
+  </si>
+  <si>
+    <t>S137</t>
+  </si>
+  <si>
+    <t>S138</t>
+  </si>
+  <si>
+    <t>S139</t>
+  </si>
+  <si>
+    <t>S140</t>
+  </si>
+  <si>
+    <t>S141</t>
+  </si>
+  <si>
+    <t>S142</t>
+  </si>
+  <si>
+    <t>S143</t>
+  </si>
+  <si>
+    <t>S144</t>
+  </si>
+  <si>
+    <t>S145</t>
+  </si>
+  <si>
+    <t>S146</t>
+  </si>
+  <si>
+    <t>S147</t>
+  </si>
+  <si>
+    <t>S148</t>
+  </si>
+  <si>
+    <t>S149</t>
+  </si>
+  <si>
+    <t>S150</t>
+  </si>
+  <si>
+    <t>S151</t>
+  </si>
+  <si>
+    <t>S152</t>
+  </si>
+  <si>
+    <t>S153</t>
+  </si>
+  <si>
+    <t>S154</t>
+  </si>
+  <si>
+    <t>S155</t>
+  </si>
+  <si>
+    <t>S156</t>
+  </si>
+  <si>
+    <t>S157</t>
+  </si>
+  <si>
+    <t>S158</t>
+  </si>
+  <si>
+    <t>S159</t>
+  </si>
+  <si>
+    <t>S160</t>
+  </si>
+  <si>
+    <t>S161</t>
+  </si>
+  <si>
+    <t>S162</t>
+  </si>
+  <si>
+    <t>S163</t>
+  </si>
+  <si>
+    <t>S164</t>
+  </si>
+  <si>
+    <t>S165</t>
+  </si>
+  <si>
+    <t>S166</t>
+  </si>
+  <si>
+    <t>S167</t>
+  </si>
+  <si>
+    <t>S168</t>
+  </si>
+  <si>
+    <t>S169</t>
+  </si>
+  <si>
+    <t>S170</t>
+  </si>
+  <si>
+    <t>S171</t>
+  </si>
+  <si>
+    <t>S172</t>
+  </si>
+  <si>
+    <t>S173</t>
+  </si>
+  <si>
+    <t>S174</t>
+  </si>
+  <si>
+    <t>S175</t>
+  </si>
+  <si>
+    <t>S176</t>
+  </si>
+  <si>
+    <t>S177</t>
+  </si>
+  <si>
+    <t>S178</t>
+  </si>
+  <si>
+    <t>S179</t>
+  </si>
+  <si>
+    <t>S180</t>
+  </si>
+  <si>
+    <t>S181</t>
+  </si>
+  <si>
+    <t>S182</t>
+  </si>
+  <si>
+    <t>S183</t>
+  </si>
+  <si>
+    <t>S184</t>
+  </si>
+  <si>
+    <t>S185</t>
+  </si>
+  <si>
+    <t>S186</t>
+  </si>
+  <si>
+    <t>S187</t>
+  </si>
+  <si>
+    <t>S188</t>
+  </si>
+  <si>
+    <t>S189</t>
+  </si>
+  <si>
+    <t>S190</t>
+  </si>
+  <si>
+    <t>S191</t>
+  </si>
+  <si>
+    <t>S192</t>
+  </si>
+  <si>
+    <t>S193</t>
+  </si>
+  <si>
+    <t>S194</t>
+  </si>
+  <si>
+    <t>S195</t>
+  </si>
+  <si>
+    <t>S196</t>
+  </si>
+  <si>
+    <t>S197</t>
+  </si>
+  <si>
+    <t>S198</t>
+  </si>
+  <si>
+    <t>S199</t>
+  </si>
+  <si>
+    <t>S200</t>
+  </si>
+  <si>
+    <t>0.988445722420948, 0.776751434978961</t>
+  </si>
+  <si>
+    <t>Temperature and Ice Cream Profits, Hours studied and exam score</t>
+  </si>
+  <si>
+    <t>Ice Cream Sales and Temperature (https://www.kaggle.com/datasets/raphaelmanayon/temperature-and-ice-cream-sales), Student Exam Scores dataset (https://www.kaggle.com/datasets/mirzayasirabdullah07/student-exam-scores-dataset)</t>
+  </si>
+  <si>
+    <t>Temperature and ice cream profits</t>
+  </si>
+  <si>
+    <t>hours studied and exam score</t>
+  </si>
+  <si>
+    <t>no, both positive</t>
   </si>
 </sst>
 </file>
@@ -693,6 +1308,1651 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Hours Studied vs Exam Scores</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>exam_score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="38100" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data2!$B$2:$B$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data2!$C$2:$C$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>34.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>37.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>30.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>26.1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>31.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>31.6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>31.1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>30.6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>30.7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>26.9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>46.4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>34.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>35.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>38.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>48.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>36.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>27.1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>36.1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>36.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>32.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>23.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>47.9</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>41.9</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>26.3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>39.9</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>40.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>34.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>30.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>32.4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>39.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>48.9</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>51.3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>32.1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>23.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>27.3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>29.1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>28.1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>28.7</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>36.9</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>39.9</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>37.1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>31.4</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>31.3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>35.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>38.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>42.2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>34.6</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>43.1</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>46.4</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>31.3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>29.8</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>47.9</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>40.9</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44.1</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>39.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>38.6</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>26.8</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>42.7</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>36.1</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>32.9</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>45.7</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>40.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>30.6</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>41.1</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>35.1</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>39.9</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>43.3</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>35.1</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>45.8</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>44.1</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>42.3</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>27.7</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>33.4</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>33.6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>37.9</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>24.7</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>31.4</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>40.6</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>30.1</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>30.3</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>32.1</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>45.3</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>40.9</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>44.8</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>34.4</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>30.7</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>31.4</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>36.1</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>44.1</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>39.4</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>33.4</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>32.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>30.7</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>46.7</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>42.7</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>28.2</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>37.799999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8593-48FB-9EFA-39FCDBA5F894}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1486629456"/>
+        <c:axId val="1486640688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1486629456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hours Studied</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1486640688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1486640688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Exam</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0%"/>
+                  <a:t> Scores</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1486629456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Ice Cream Profits vs Temperature</a:t>
             </a:r>
           </a:p>
@@ -3296,6 +5556,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3851,7 +6151,566 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75%"/>
+          <a:lumOff val="25%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50%"/>
+            <a:lumOff val="50%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12260000-A5BD-49DF-8F51-469502752A2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4193,8 +7052,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4243,8 +7102,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7188,16 +10047,2313 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB751599-9884-4282-937A-5E58D8D93FF3}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.77675143497896104</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B4EAF2-7807-4087-B527-4DDE033C2BDC}">
+  <dimension ref="A1:C201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C201"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>1.3</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>3.5</v>
+      </c>
+      <c r="C5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>9.1</v>
+      </c>
+      <c r="C6">
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>8.4</v>
+      </c>
+      <c r="C7">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>10.8</v>
+      </c>
+      <c r="C8">
+        <v>37.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>5.6</v>
+      </c>
+      <c r="C10">
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>1.3</v>
+      </c>
+      <c r="C11">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>3.4</v>
+      </c>
+      <c r="C12">
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>6.6</v>
+      </c>
+      <c r="C13">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>1.3</v>
+      </c>
+      <c r="C14">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>3.2</v>
+      </c>
+      <c r="C15">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>8.1</v>
+      </c>
+      <c r="C16">
+        <v>41.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>3.4</v>
+      </c>
+      <c r="C18">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>7.5</v>
+      </c>
+      <c r="C19">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>9.9</v>
+      </c>
+      <c r="C20">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C21">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>9.9</v>
+      </c>
+      <c r="C22">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C23">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24">
+        <v>4.7</v>
+      </c>
+      <c r="C24">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>2.7</v>
+      </c>
+      <c r="C25">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
+        <v>11.5</v>
+      </c>
+      <c r="C26">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27">
+        <v>4.7</v>
+      </c>
+      <c r="C27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <v>2.1</v>
+      </c>
+      <c r="C29">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30">
+        <v>10.3</v>
+      </c>
+      <c r="C30">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31">
+        <v>7.6</v>
+      </c>
+      <c r="C31">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32">
+        <v>9.9</v>
+      </c>
+      <c r="C32">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>41.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34">
+        <v>6.9</v>
+      </c>
+      <c r="C34">
+        <v>38.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35">
+        <v>11.7</v>
+      </c>
+      <c r="C35">
+        <v>42.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36">
+        <v>5.2</v>
+      </c>
+      <c r="C36">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37">
+        <v>7.1</v>
+      </c>
+      <c r="C37">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38">
+        <v>10.1</v>
+      </c>
+      <c r="C38">
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39">
+        <v>7.8</v>
+      </c>
+      <c r="C39">
+        <v>38.299999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40">
+        <v>10.5</v>
+      </c>
+      <c r="C40">
+        <v>39.799999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41">
+        <v>7.4</v>
+      </c>
+      <c r="C41">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C42">
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43">
+        <v>1.5</v>
+      </c>
+      <c r="C43">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44">
+        <v>3.5</v>
+      </c>
+      <c r="C44">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45">
+        <v>4.2</v>
+      </c>
+      <c r="C45">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46">
+        <v>1.9</v>
+      </c>
+      <c r="C46">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47">
+        <v>3.6</v>
+      </c>
+      <c r="C47">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48">
+        <v>2.1</v>
+      </c>
+      <c r="C48">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C49">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50">
+        <v>8</v>
+      </c>
+      <c r="C50">
+        <v>41.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C52">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53">
+        <v>3.3</v>
+      </c>
+      <c r="C53">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54">
+        <v>3.9</v>
+      </c>
+      <c r="C54">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55">
+        <v>11.3</v>
+      </c>
+      <c r="C55">
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56">
+        <v>8.1</v>
+      </c>
+      <c r="C56">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57">
+        <v>7.7</v>
+      </c>
+      <c r="C57">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58">
+        <v>2.9</v>
+      </c>
+      <c r="C58">
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60">
+        <v>2.8</v>
+      </c>
+      <c r="C60">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61">
+        <v>5.2</v>
+      </c>
+      <c r="C61">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62">
+        <v>11.9</v>
+      </c>
+      <c r="C62">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64">
+        <v>7.1</v>
+      </c>
+      <c r="C64">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65">
+        <v>8.5</v>
+      </c>
+      <c r="C65">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66">
+        <v>10.3</v>
+      </c>
+      <c r="C66">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67">
+        <v>9.5</v>
+      </c>
+      <c r="C67">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68">
+        <v>3.5</v>
+      </c>
+      <c r="C68">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69">
+        <v>1.4</v>
+      </c>
+      <c r="C69">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70">
+        <v>4.5</v>
+      </c>
+      <c r="C70">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71">
+        <v>3.9</v>
+      </c>
+      <c r="C71">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72">
+        <v>3.3</v>
+      </c>
+      <c r="C72">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73">
+        <v>11.4</v>
+      </c>
+      <c r="C73">
+        <v>47.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74">
+        <v>10.6</v>
+      </c>
+      <c r="C74">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75">
+        <v>4.5</v>
+      </c>
+      <c r="C75">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C76">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77">
+        <v>5.4</v>
+      </c>
+      <c r="C77">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78">
+        <v>11.1</v>
+      </c>
+      <c r="C78">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80">
+        <v>3.9</v>
+      </c>
+      <c r="C80">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81">
+        <v>3.7</v>
+      </c>
+      <c r="C81">
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82">
+        <v>7.2</v>
+      </c>
+      <c r="C82">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83">
+        <v>3.9</v>
+      </c>
+      <c r="C83">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84">
+        <v>7.4</v>
+      </c>
+      <c r="C84">
+        <v>39.799999999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>96</v>
+      </c>
+      <c r="B85">
+        <v>10.9</v>
+      </c>
+      <c r="C85">
+        <v>48.9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86">
+        <v>5.4</v>
+      </c>
+      <c r="C86">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87">
+        <v>3.4</v>
+      </c>
+      <c r="C87">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>99</v>
+      </c>
+      <c r="B88">
+        <v>12</v>
+      </c>
+      <c r="C88">
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89">
+        <v>6.6</v>
+      </c>
+      <c r="C89">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91">
+        <v>1.5</v>
+      </c>
+      <c r="C91">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C92">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93">
+        <v>7.9</v>
+      </c>
+      <c r="C93">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>105</v>
+      </c>
+      <c r="B94">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C94">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>106</v>
+      </c>
+      <c r="B95">
+        <v>5.6</v>
+      </c>
+      <c r="C95">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96">
+        <v>1.7</v>
+      </c>
+      <c r="C96">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>108</v>
+      </c>
+      <c r="B97">
+        <v>5.2</v>
+      </c>
+      <c r="C97">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>109</v>
+      </c>
+      <c r="B98">
+        <v>12</v>
+      </c>
+      <c r="C98">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>110</v>
+      </c>
+      <c r="B99">
+        <v>6.8</v>
+      </c>
+      <c r="C99">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>111</v>
+      </c>
+      <c r="B100">
+        <v>11.7</v>
+      </c>
+      <c r="C100">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>112</v>
+      </c>
+      <c r="B101">
+        <v>10.5</v>
+      </c>
+      <c r="C101">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>113</v>
+      </c>
+      <c r="B102">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C102">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>114</v>
+      </c>
+      <c r="B103">
+        <v>8.9</v>
+      </c>
+      <c r="C103">
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>115</v>
+      </c>
+      <c r="B104">
+        <v>8.5</v>
+      </c>
+      <c r="C104">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>116</v>
+      </c>
+      <c r="B105">
+        <v>6.9</v>
+      </c>
+      <c r="C105">
+        <v>32.6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>117</v>
+      </c>
+      <c r="B106">
+        <v>3.9</v>
+      </c>
+      <c r="C106">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>118</v>
+      </c>
+      <c r="B107">
+        <v>8.1</v>
+      </c>
+      <c r="C107">
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>119</v>
+      </c>
+      <c r="B108">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C108">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>120</v>
+      </c>
+      <c r="B109">
+        <v>5.8</v>
+      </c>
+      <c r="C109">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>121</v>
+      </c>
+      <c r="B110">
+        <v>6</v>
+      </c>
+      <c r="C110">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>122</v>
+      </c>
+      <c r="B111">
+        <v>11.5</v>
+      </c>
+      <c r="C111">
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>123</v>
+      </c>
+      <c r="B112">
+        <v>10.6</v>
+      </c>
+      <c r="C112">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>124</v>
+      </c>
+      <c r="B113">
+        <v>3.9</v>
+      </c>
+      <c r="C113">
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>125</v>
+      </c>
+      <c r="B114">
+        <v>6.5</v>
+      </c>
+      <c r="C114">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>126</v>
+      </c>
+      <c r="B115">
+        <v>3</v>
+      </c>
+      <c r="C115">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>127</v>
+      </c>
+      <c r="B116">
+        <v>11</v>
+      </c>
+      <c r="C116">
+        <v>43.1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>128</v>
+      </c>
+      <c r="B117">
+        <v>10.6</v>
+      </c>
+      <c r="C117">
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>129</v>
+      </c>
+      <c r="B118">
+        <v>4.3</v>
+      </c>
+      <c r="C118">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>130</v>
+      </c>
+      <c r="B119">
+        <v>8</v>
+      </c>
+      <c r="C119">
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>131</v>
+      </c>
+      <c r="B120">
+        <v>7.7</v>
+      </c>
+      <c r="C120">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>132</v>
+      </c>
+      <c r="B121">
+        <v>2.7</v>
+      </c>
+      <c r="C121">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>133</v>
+      </c>
+      <c r="B122">
+        <v>9.4</v>
+      </c>
+      <c r="C122">
+        <v>47.9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>134</v>
+      </c>
+      <c r="B123">
+        <v>6.9</v>
+      </c>
+      <c r="C123">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>135</v>
+      </c>
+      <c r="B124">
+        <v>9.6</v>
+      </c>
+      <c r="C124">
+        <v>44.1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>136</v>
+      </c>
+      <c r="B125">
+        <v>6.8</v>
+      </c>
+      <c r="C125">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>137</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>138</v>
+      </c>
+      <c r="B127">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C127">
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>139</v>
+      </c>
+      <c r="B128">
+        <v>1.2</v>
+      </c>
+      <c r="C128">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>140</v>
+      </c>
+      <c r="B129">
+        <v>11.2</v>
+      </c>
+      <c r="C129">
+        <v>42.7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>141</v>
+      </c>
+      <c r="B130">
+        <v>10.7</v>
+      </c>
+      <c r="C130">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>142</v>
+      </c>
+      <c r="B131">
+        <v>10.1</v>
+      </c>
+      <c r="C131">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>143</v>
+      </c>
+      <c r="B132">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C132">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>144</v>
+      </c>
+      <c r="B133">
+        <v>1.6</v>
+      </c>
+      <c r="C133">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>145</v>
+      </c>
+      <c r="B134">
+        <v>10.7</v>
+      </c>
+      <c r="C134">
+        <v>45.7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>146</v>
+      </c>
+      <c r="B135">
+        <v>11.4</v>
+      </c>
+      <c r="C135">
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>147</v>
+      </c>
+      <c r="B136">
+        <v>1.9</v>
+      </c>
+      <c r="C136">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>148</v>
+      </c>
+      <c r="B137">
+        <v>6.3</v>
+      </c>
+      <c r="C137">
+        <v>41.1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>149</v>
+      </c>
+      <c r="B138">
+        <v>1.8</v>
+      </c>
+      <c r="C138">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>150</v>
+      </c>
+      <c r="B139">
+        <v>9.4</v>
+      </c>
+      <c r="C139">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>151</v>
+      </c>
+      <c r="B140">
+        <v>9.4</v>
+      </c>
+      <c r="C140">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>152</v>
+      </c>
+      <c r="B141">
+        <v>2.4</v>
+      </c>
+      <c r="C141">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>153</v>
+      </c>
+      <c r="B142">
+        <v>6.2</v>
+      </c>
+      <c r="C142">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>154</v>
+      </c>
+      <c r="B143">
+        <v>7</v>
+      </c>
+      <c r="C143">
+        <v>43.3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>155</v>
+      </c>
+      <c r="B144">
+        <v>3.9</v>
+      </c>
+      <c r="C144">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>156</v>
+      </c>
+      <c r="B145">
+        <v>10.6</v>
+      </c>
+      <c r="C145">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>157</v>
+      </c>
+      <c r="B146">
+        <v>5.7</v>
+      </c>
+      <c r="C146">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>158</v>
+      </c>
+      <c r="B147">
+        <v>3.3</v>
+      </c>
+      <c r="C147">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>159</v>
+      </c>
+      <c r="B148">
+        <v>6.9</v>
+      </c>
+      <c r="C148">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>160</v>
+      </c>
+      <c r="B149">
+        <v>9</v>
+      </c>
+      <c r="C149">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>161</v>
+      </c>
+      <c r="B150">
+        <v>3.2</v>
+      </c>
+      <c r="C150">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>162</v>
+      </c>
+      <c r="B151">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C151">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>163</v>
+      </c>
+      <c r="B152">
+        <v>11.9</v>
+      </c>
+      <c r="C152">
+        <v>44.1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>164</v>
+      </c>
+      <c r="B153">
+        <v>8.1</v>
+      </c>
+      <c r="C153">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>165</v>
+      </c>
+      <c r="B154">
+        <v>5.8</v>
+      </c>
+      <c r="C154">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>166</v>
+      </c>
+      <c r="B155">
+        <v>6.7</v>
+      </c>
+      <c r="C155">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>167</v>
+      </c>
+      <c r="B156">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C156">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>168</v>
+      </c>
+      <c r="B157">
+        <v>3.5</v>
+      </c>
+      <c r="C157">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>169</v>
+      </c>
+      <c r="B158">
+        <v>4.7</v>
+      </c>
+      <c r="C158">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>170</v>
+      </c>
+      <c r="B159">
+        <v>7.5</v>
+      </c>
+      <c r="C159">
+        <v>37.9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>171</v>
+      </c>
+      <c r="B160">
+        <v>3.5</v>
+      </c>
+      <c r="C160">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>172</v>
+      </c>
+      <c r="B161">
+        <v>3.4</v>
+      </c>
+      <c r="C161">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>173</v>
+      </c>
+      <c r="B162">
+        <v>1.8</v>
+      </c>
+      <c r="C162">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>174</v>
+      </c>
+      <c r="B163">
+        <v>7.9</v>
+      </c>
+      <c r="C163">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>175</v>
+      </c>
+      <c r="B164">
+        <v>3.5</v>
+      </c>
+      <c r="C164">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>176</v>
+      </c>
+      <c r="B165">
+        <v>11</v>
+      </c>
+      <c r="C165">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>177</v>
+      </c>
+      <c r="B166">
+        <v>10.5</v>
+      </c>
+      <c r="C166">
+        <v>40.6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>178</v>
+      </c>
+      <c r="B167">
+        <v>1.8</v>
+      </c>
+      <c r="C167">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>179</v>
+      </c>
+      <c r="B168">
+        <v>3.6</v>
+      </c>
+      <c r="C168">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>180</v>
+      </c>
+      <c r="B169">
+        <v>8.4</v>
+      </c>
+      <c r="C169">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>181</v>
+      </c>
+      <c r="B170">
+        <v>3.4</v>
+      </c>
+      <c r="C170">
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>182</v>
+      </c>
+      <c r="B171">
+        <v>2.5</v>
+      </c>
+      <c r="C171">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>183</v>
+      </c>
+      <c r="B172">
+        <v>11.3</v>
+      </c>
+      <c r="C172">
+        <v>45.3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>184</v>
+      </c>
+      <c r="B173">
+        <v>7.3</v>
+      </c>
+      <c r="C173">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>185</v>
+      </c>
+      <c r="B174">
+        <v>6.2</v>
+      </c>
+      <c r="C174">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>186</v>
+      </c>
+      <c r="B175">
+        <v>9.6</v>
+      </c>
+      <c r="C175">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>187</v>
+      </c>
+      <c r="B176">
+        <v>9.9</v>
+      </c>
+      <c r="C176">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>188</v>
+      </c>
+      <c r="B177">
+        <v>3.1</v>
+      </c>
+      <c r="C177">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>189</v>
+      </c>
+      <c r="B178">
+        <v>2.1</v>
+      </c>
+      <c r="C178">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>190</v>
+      </c>
+      <c r="B179">
+        <v>5.7</v>
+      </c>
+      <c r="C179">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>191</v>
+      </c>
+      <c r="B180">
+        <v>5.7</v>
+      </c>
+      <c r="C180">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>192</v>
+      </c>
+      <c r="B181">
+        <v>6.1</v>
+      </c>
+      <c r="C181">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>193</v>
+      </c>
+      <c r="B182">
+        <v>9</v>
+      </c>
+      <c r="C182">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>194</v>
+      </c>
+      <c r="B183">
+        <v>8.4</v>
+      </c>
+      <c r="C183">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>195</v>
+      </c>
+      <c r="B184">
+        <v>11.8</v>
+      </c>
+      <c r="C184">
+        <v>44.1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>196</v>
+      </c>
+      <c r="B185">
+        <v>2.1</v>
+      </c>
+      <c r="C185">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>197</v>
+      </c>
+      <c r="B186">
+        <v>5.4</v>
+      </c>
+      <c r="C186">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>198</v>
+      </c>
+      <c r="B187">
+        <v>4.7</v>
+      </c>
+      <c r="C187">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>199</v>
+      </c>
+      <c r="B188">
+        <v>10.5</v>
+      </c>
+      <c r="C188">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>200</v>
+      </c>
+      <c r="B189">
+        <v>3.7</v>
+      </c>
+      <c r="C189">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>201</v>
+      </c>
+      <c r="B190">
+        <v>3.1</v>
+      </c>
+      <c r="C190">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>202</v>
+      </c>
+      <c r="B191">
+        <v>5.9</v>
+      </c>
+      <c r="C191">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>203</v>
+      </c>
+      <c r="B192">
+        <v>5.6</v>
+      </c>
+      <c r="C192">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>204</v>
+      </c>
+      <c r="B193">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C193">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>205</v>
+      </c>
+      <c r="B194">
+        <v>3.7</v>
+      </c>
+      <c r="C194">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>206</v>
+      </c>
+      <c r="B195">
+        <v>11.2</v>
+      </c>
+      <c r="C195">
+        <v>46.7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>207</v>
+      </c>
+      <c r="B196">
+        <v>5.9</v>
+      </c>
+      <c r="C196">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>208</v>
+      </c>
+      <c r="B197">
+        <v>10.5</v>
+      </c>
+      <c r="C197">
+        <v>42.7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>209</v>
+      </c>
+      <c r="B198">
+        <v>7.1</v>
+      </c>
+      <c r="C198">
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>210</v>
+      </c>
+      <c r="B199">
+        <v>1.6</v>
+      </c>
+      <c r="C199">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>211</v>
+      </c>
+      <c r="B200">
+        <v>12</v>
+      </c>
+      <c r="C200">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>212</v>
+      </c>
+      <c r="B201">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C201">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A153723-866F-4991-A6A3-767EDBFC6AE7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="112.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -7205,7 +12361,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7213,15 +12369,15 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>0.98844572242094797</v>
+      <c r="B3" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7229,7 +12385,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7237,7 +12393,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7245,7 +12401,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7253,7 +12409,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -7261,7 +12417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
